--- a/data/input_behavior/BehaviorScenario_Technology_Type.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Type.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5CFF5D-EB90-FB4D-9785-1B4B7DEA160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="-21100" windowWidth="30240" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="-21105" windowWidth="30240" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,22 +419,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,243 +444,243 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>9</v>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>10</v>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>14</v>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>15</v>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>25</v>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>4</v>
@@ -689,9 +688,9 @@
       <c r="D28" s="2"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>4</v>
@@ -699,9 +698,9 @@
       <c r="D29" s="2"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>4</v>
@@ -709,9 +708,9 @@
       <c r="D30" s="2"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>4</v>
@@ -719,9 +718,9 @@
       <c r="D31" s="2"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>4</v>
@@ -729,9 +728,9 @@
       <c r="D32" s="2"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>4</v>
@@ -740,9 +739,9 @@
       <c r="D33" s="2"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>4</v>
@@ -751,9 +750,9 @@
       <c r="D34" s="2"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>4</v>
@@ -762,9 +761,9 @@
       <c r="D35" s="2"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>34</v>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>4</v>
@@ -773,9 +772,9 @@
       <c r="D36" s="2"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
@@ -783,9 +782,9 @@
       <c r="C37" s="6"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -793,9 +792,9 @@
       <c r="C38" s="6"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -803,9 +802,9 @@
       <c r="C39" s="6"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -813,9 +812,9 @@
       <c r="C40" s="6"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
@@ -823,9 +822,9 @@
       <c r="C41" s="6"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -839,6 +838,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1043,27 +1062,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8831E31-2A91-4E0B-B823-0BFA5718552C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1080,23 +1098,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_Type.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Type.xlsx
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -811,26 +811,6 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -838,17 +818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -857,7 +826,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0f10bb0856646bfda2b94dc29ed0a887">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca21336e7eb6462c50ac4645cdd355ca" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1062,18 +1031,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8674C498-74B4-4650-B402-97A5D02496A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1081,7 +1050,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8831E31-2A91-4E0B-B823-0BFA5718552C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1098,4 +1067,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE03864-EF8F-45D0-B8AF-9F190340F3F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Technology_Type.xlsx
+++ b/data/input_behavior/BehaviorScenario_Technology_Type.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rickm\Documents\Git\Flex\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3D0F77-6190-4A5C-9F58-2AE1AD39D63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="-21105" windowWidth="30240" windowHeight="17460"/>
+    <workbookView xWindow="12345" yWindow="0" windowWidth="43200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,17 +87,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -419,17 +406,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
@@ -579,7 +566,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -588,7 +575,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -597,7 +584,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -606,7 +593,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -615,7 +602,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -624,7 +611,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -633,7 +620,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -642,7 +629,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -651,7 +638,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -660,7 +647,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -669,8 +656,8 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -678,138 +665,129 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>4</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>4</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-      <c r="C33" s="6"/>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6"/>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
-        <v>4</v>
-      </c>
-      <c r="C35" s="6"/>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
-        <v>4</v>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="2"/>
     </row>
   </sheetData>
